--- a/src/main/resources/Coding Decoded Dynamic Programming SDE sheet.xlsx
+++ b/src/main/resources/Coding Decoded Dynamic Programming SDE sheet.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workshop\my-learnings\ram-dsa-mad\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="159">
   <si>
     <t xml:space="preserve">Question marked with** are must do before interview </t>
   </si>
@@ -168,23 +176,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Ones and Zeroes </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>** 3DP Question</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -198,16 +209,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Cherry Pickup II  ** </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>3DP question</t>
     </r>
@@ -239,23 +252,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Partition Equal Subset Sum </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>** Most asked</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -341,16 +357,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Longest Increasing Subsequence ** </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>Highly Asked</t>
     </r>
@@ -364,16 +382,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Decode Ways II </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>** Highly Asked</t>
     </r>
@@ -566,73 +586,111 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/distinct-subsequences/</t>
+  </si>
+  <si>
+    <t>1.Linear DP</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -640,7 +698,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -673,93 +731,94 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -949,1021 +1008,1438 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="70.63"/>
-    <col customWidth="1" min="2" max="2" width="54.13"/>
+    <col min="1" max="2" width="70.6640625" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-    </row>
-    <row r="2">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.8">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-    </row>
-    <row r="3">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.8">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.8">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.8">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.8">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.8">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="13.8">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.8">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.8">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="13.8">
       <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12">
+      <c r="B11" s="24"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="13.8">
       <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-    </row>
-    <row r="13">
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-    </row>
-    <row r="14">
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
-    </row>
-    <row r="15">
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-    </row>
-    <row r="16">
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.8">
       <c r="A16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
-    </row>
-    <row r="17">
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
-    </row>
-    <row r="18">
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-    </row>
-    <row r="19">
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
-    </row>
-    <row r="20">
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-    </row>
-    <row r="21">
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-    </row>
-    <row r="22">
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="13.8">
       <c r="A22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-    </row>
-    <row r="23">
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.8">
       <c r="A23" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-    </row>
-    <row r="24">
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
-    </row>
-    <row r="25">
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" ht="13.8">
       <c r="A25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
-    </row>
-    <row r="26">
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
-    </row>
-    <row r="27">
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.8">
       <c r="A27" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
-    </row>
-    <row r="28">
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
-    </row>
-    <row r="29">
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
-    </row>
-    <row r="30">
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
-    </row>
-    <row r="31">
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.8">
       <c r="A31" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-    </row>
-    <row r="32">
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" ht="13.8">
       <c r="A32" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
-    </row>
-    <row r="33">
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" ht="13.8">
       <c r="A33" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
-    </row>
-    <row r="34">
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" ht="13.8">
       <c r="A34" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
-    </row>
-    <row r="35">
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.8">
       <c r="A35" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-    </row>
-    <row r="36">
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:8" ht="13.8">
       <c r="A36" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
-    </row>
-    <row r="37">
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:8" ht="13.8">
       <c r="A37" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
-    </row>
-    <row r="38">
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.8">
       <c r="A38" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
-    </row>
-    <row r="40">
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" ht="13.8">
       <c r="A40" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="D40" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="E40" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-    </row>
-    <row r="41">
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="1:8" ht="13.8">
       <c r="A41" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="24"/>
+      <c r="C41" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="D41" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="E41" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="22"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-    </row>
-    <row r="42">
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" spans="1:8" ht="13.8">
       <c r="A42" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="D42" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="E42" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-    </row>
-    <row r="43">
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:8" ht="13.8">
       <c r="A43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="D43" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="E43" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="22"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-    </row>
-    <row r="44">
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="1:8" ht="13.8">
       <c r="A44" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="D44" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="E44" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="22"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-    </row>
-    <row r="45">
+      <c r="H44" s="22"/>
+    </row>
+    <row r="45" spans="1:8" ht="13.8">
       <c r="A45" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="24"/>
+      <c r="C45" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="D45" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="E45" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E45" s="22"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
-    </row>
-    <row r="46">
+      <c r="H45" s="22"/>
+    </row>
+    <row r="46" spans="1:8" ht="13.8">
       <c r="A46" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="D46" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="E46" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="22"/>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
-    </row>
-    <row r="47">
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="1:8" ht="13.8">
       <c r="A47" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="D47" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="E47" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E47" s="22"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
-    </row>
-    <row r="48">
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" ht="13.8">
       <c r="A48" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="24"/>
+      <c r="C48" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="D48" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="E48" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="22"/>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
-    </row>
-    <row r="49">
+      <c r="H48" s="22"/>
+    </row>
+    <row r="49" spans="1:8" ht="13.8">
       <c r="A49" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="24"/>
+      <c r="C49" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="D49" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="E49" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="22"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
-    </row>
-    <row r="50">
+      <c r="H49" s="22"/>
+    </row>
+    <row r="50" spans="1:8" ht="13.8">
       <c r="A50" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="D50" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="E50" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="22"/>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
-    </row>
-    <row r="51">
+      <c r="H50" s="22"/>
+    </row>
+    <row r="51" spans="1:8" ht="13.8">
       <c r="A51" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="D51" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="E51" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
-    </row>
-    <row r="52">
+      <c r="H51" s="22"/>
+    </row>
+    <row r="52" spans="1:8" ht="13.8">
       <c r="A52" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="D52" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="E52" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
-    </row>
-    <row r="53">
+      <c r="H52" s="22"/>
+    </row>
+    <row r="53" spans="1:8" ht="13.8">
       <c r="A53" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="D53" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="E53" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
-    </row>
-    <row r="54">
+      <c r="H53" s="22"/>
+    </row>
+    <row r="54" spans="1:8" ht="13.8">
       <c r="A54" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="D54" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="E54" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
-    </row>
-    <row r="55">
+      <c r="H54" s="22"/>
+    </row>
+    <row r="55" spans="1:8" ht="13.8">
       <c r="A55" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="24"/>
+      <c r="C55" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="D55" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="E55" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E55" s="22"/>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B56" s="24"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B57" s="24"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B58" s="24"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B59" s="24"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B60" s="24"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B61" s="24"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B62" s="24"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B63" s="24"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B64" s="24"/>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B65" s="24"/>
+    </row>
+    <row r="66" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B66" s="24"/>
+    </row>
+    <row r="67" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B67" s="24"/>
+    </row>
+    <row r="68" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B68" s="24"/>
+    </row>
+    <row r="69" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B69" s="24"/>
+    </row>
+    <row r="70" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B70" s="24"/>
+    </row>
+    <row r="71" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B71" s="24"/>
+    </row>
+    <row r="72" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B72" s="24"/>
+    </row>
+    <row r="73" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B73" s="24"/>
+    </row>
+    <row r="74" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B74" s="24"/>
+    </row>
+    <row r="75" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B75" s="24"/>
+    </row>
+    <row r="76" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B76" s="24"/>
+    </row>
+    <row r="77" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B77" s="24"/>
+    </row>
+    <row r="78" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B78" s="24"/>
+    </row>
+    <row r="79" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B79" s="24"/>
+    </row>
+    <row r="80" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B80" s="24"/>
+    </row>
+    <row r="81" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B81" s="24"/>
+    </row>
+    <row r="82" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B82" s="24"/>
+    </row>
+    <row r="83" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B83" s="24"/>
+    </row>
+    <row r="84" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B84" s="24"/>
+    </row>
+    <row r="85" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B85" s="24"/>
+    </row>
+    <row r="86" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B86" s="24"/>
+    </row>
+    <row r="87" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B87" s="24"/>
+    </row>
+    <row r="88" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B88" s="24"/>
+    </row>
+    <row r="89" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B89" s="24"/>
+    </row>
+    <row r="90" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B90" s="24"/>
+    </row>
+    <row r="91" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B91" s="24"/>
+    </row>
+    <row r="92" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B92" s="24"/>
+    </row>
+    <row r="93" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B93" s="24"/>
+    </row>
+    <row r="94" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B94" s="24"/>
+    </row>
+    <row r="95" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B95" s="24"/>
+    </row>
+    <row r="96" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B96" s="24"/>
+    </row>
+    <row r="97" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B97" s="24"/>
+    </row>
+    <row r="98" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B98" s="24"/>
+    </row>
+    <row r="99" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B99" s="24"/>
+    </row>
+    <row r="100" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B100" s="24"/>
+    </row>
+    <row r="101" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B101" s="24"/>
+    </row>
+    <row r="102" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B102" s="24"/>
+    </row>
+    <row r="103" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B103" s="24"/>
+    </row>
+    <row r="104" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B104" s="24"/>
+    </row>
+    <row r="105" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B105" s="24"/>
+    </row>
+    <row r="106" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B106" s="24"/>
+    </row>
+    <row r="107" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B107" s="24"/>
+    </row>
+    <row r="108" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B108" s="24"/>
+    </row>
+    <row r="109" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B109" s="24"/>
+    </row>
+    <row r="110" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B110" s="24"/>
+    </row>
+    <row r="111" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B111" s="24"/>
+    </row>
+    <row r="112" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B112" s="24"/>
+    </row>
+    <row r="113" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B113" s="24"/>
+    </row>
+    <row r="114" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B114" s="24"/>
+    </row>
+    <row r="115" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B115" s="24"/>
+    </row>
+    <row r="116" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B116" s="24"/>
+    </row>
+    <row r="117" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B117" s="24"/>
+    </row>
+    <row r="118" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B118" s="24"/>
+    </row>
+    <row r="119" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B119" s="24"/>
+    </row>
+    <row r="120" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B120" s="24"/>
+    </row>
+    <row r="121" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B121" s="24"/>
+    </row>
+    <row r="122" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B122" s="24"/>
+    </row>
+    <row r="123" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B123" s="24"/>
+    </row>
+    <row r="124" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B124" s="24"/>
+    </row>
+    <row r="125" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B125" s="24"/>
+    </row>
+    <row r="126" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B126" s="24"/>
+    </row>
+    <row r="127" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B127" s="24"/>
+    </row>
+    <row r="128" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B128" s="24"/>
+    </row>
+    <row r="129" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B129" s="24"/>
+    </row>
+    <row r="130" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B130" s="24"/>
+    </row>
+    <row r="131" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B131" s="24"/>
+    </row>
+    <row r="132" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B132" s="24"/>
+    </row>
+    <row r="133" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B133" s="24"/>
+    </row>
+    <row r="134" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B134" s="24"/>
+    </row>
+    <row r="135" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B135" s="24"/>
+    </row>
+    <row r="136" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B136" s="24"/>
+    </row>
+    <row r="137" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B137" s="24"/>
+    </row>
+    <row r="138" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B138" s="24"/>
+    </row>
+    <row r="139" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B139" s="24"/>
+    </row>
+    <row r="140" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B140" s="24"/>
+    </row>
+    <row r="141" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B141" s="24"/>
+    </row>
+    <row r="142" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B142" s="24"/>
+    </row>
+    <row r="143" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B143" s="24"/>
+    </row>
+    <row r="144" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B144" s="24"/>
+    </row>
+    <row r="145" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B145" s="24"/>
+    </row>
+    <row r="146" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B146" s="24"/>
+    </row>
+    <row r="147" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B147" s="24"/>
+    </row>
+    <row r="148" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B148" s="24"/>
+    </row>
+    <row r="149" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B149" s="24"/>
+    </row>
+    <row r="150" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B150" s="24"/>
+    </row>
+    <row r="151" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B151" s="24"/>
+    </row>
+    <row r="152" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B152" s="24"/>
+    </row>
+    <row r="153" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B153" s="24"/>
+    </row>
+    <row r="154" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B154" s="24"/>
+    </row>
+    <row r="155" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B155" s="24"/>
+    </row>
+    <row r="156" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B156" s="24"/>
+    </row>
+    <row r="157" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B157" s="24"/>
+    </row>
+    <row r="158" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B158" s="24"/>
+    </row>
+    <row r="159" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B159" s="24"/>
+    </row>
+    <row r="160" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B160" s="24"/>
+    </row>
+    <row r="161" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B161" s="24"/>
+    </row>
+    <row r="162" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B162" s="24"/>
+    </row>
+    <row r="163" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B163" s="24"/>
+    </row>
+    <row r="164" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B164" s="24"/>
+    </row>
+    <row r="165" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B165" s="24"/>
+    </row>
+    <row r="166" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B166" s="24"/>
+    </row>
+    <row r="167" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B167" s="24"/>
+    </row>
+    <row r="168" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B168" s="24"/>
+    </row>
+    <row r="169" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B169" s="24"/>
+    </row>
+    <row r="170" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B170" s="24"/>
+    </row>
+    <row r="171" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B171" s="24"/>
+    </row>
+    <row r="172" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B172" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="D4"/>
-    <hyperlink r:id="rId5" ref="B5"/>
-    <hyperlink r:id="rId6" ref="D5"/>
-    <hyperlink r:id="rId7" ref="B6"/>
-    <hyperlink r:id="rId8" ref="D6"/>
-    <hyperlink r:id="rId9" ref="B7"/>
-    <hyperlink r:id="rId10" ref="D7"/>
-    <hyperlink r:id="rId11" ref="B8"/>
-    <hyperlink r:id="rId12" ref="D8"/>
-    <hyperlink r:id="rId13" ref="B9"/>
-    <hyperlink r:id="rId14" ref="D9"/>
-    <hyperlink r:id="rId15" ref="B10"/>
-    <hyperlink r:id="rId16" ref="D10"/>
-    <hyperlink r:id="rId17" ref="B12"/>
-    <hyperlink r:id="rId18" ref="D12"/>
-    <hyperlink r:id="rId19" ref="B13"/>
-    <hyperlink r:id="rId20" ref="D13"/>
-    <hyperlink r:id="rId21" ref="B14"/>
-    <hyperlink r:id="rId22" ref="D14"/>
-    <hyperlink r:id="rId23" ref="B15"/>
-    <hyperlink r:id="rId24" ref="D15"/>
-    <hyperlink r:id="rId25" ref="B16"/>
-    <hyperlink r:id="rId26" ref="D16"/>
-    <hyperlink r:id="rId27" ref="B17"/>
-    <hyperlink r:id="rId28" ref="D17"/>
-    <hyperlink r:id="rId29" ref="B18"/>
-    <hyperlink r:id="rId30" ref="D18"/>
-    <hyperlink r:id="rId31" ref="B19"/>
-    <hyperlink r:id="rId32" ref="D19"/>
-    <hyperlink r:id="rId33" ref="B20"/>
-    <hyperlink r:id="rId34" ref="D20"/>
-    <hyperlink r:id="rId35" ref="B21"/>
-    <hyperlink r:id="rId36" ref="D21"/>
-    <hyperlink r:id="rId37" ref="B22"/>
-    <hyperlink r:id="rId38" ref="D22"/>
-    <hyperlink r:id="rId39" ref="B23"/>
-    <hyperlink r:id="rId40" ref="D23"/>
-    <hyperlink r:id="rId41" ref="B24"/>
-    <hyperlink r:id="rId42" ref="D24"/>
-    <hyperlink r:id="rId43" ref="B25"/>
-    <hyperlink r:id="rId44" ref="D25"/>
-    <hyperlink r:id="rId45" ref="B26"/>
-    <hyperlink r:id="rId46" ref="D26"/>
-    <hyperlink r:id="rId47" ref="B27"/>
-    <hyperlink r:id="rId48" ref="D27"/>
-    <hyperlink r:id="rId49" ref="B28"/>
-    <hyperlink r:id="rId50" ref="D28"/>
-    <hyperlink r:id="rId51" ref="B29"/>
-    <hyperlink r:id="rId52" ref="D29"/>
-    <hyperlink r:id="rId53" ref="B30"/>
-    <hyperlink r:id="rId54" ref="D30"/>
-    <hyperlink r:id="rId55" ref="B31"/>
-    <hyperlink r:id="rId56" ref="D31"/>
-    <hyperlink r:id="rId57" ref="B32"/>
-    <hyperlink r:id="rId58" ref="D32"/>
-    <hyperlink r:id="rId59" ref="B33"/>
-    <hyperlink r:id="rId60" ref="D33"/>
-    <hyperlink r:id="rId61" ref="B34"/>
-    <hyperlink r:id="rId62" ref="D34"/>
-    <hyperlink r:id="rId63" ref="B35"/>
-    <hyperlink r:id="rId64" ref="D35"/>
-    <hyperlink r:id="rId65" ref="B36"/>
-    <hyperlink r:id="rId66" ref="D36"/>
-    <hyperlink r:id="rId67" ref="B37"/>
-    <hyperlink r:id="rId68" ref="D37"/>
-    <hyperlink r:id="rId69" ref="B38"/>
-    <hyperlink r:id="rId70" ref="D38"/>
-    <hyperlink r:id="rId71" ref="B40"/>
-    <hyperlink r:id="rId72" ref="D40"/>
-    <hyperlink r:id="rId73" ref="B41"/>
-    <hyperlink r:id="rId74" ref="D41"/>
-    <hyperlink r:id="rId75" ref="B42"/>
-    <hyperlink r:id="rId76" ref="D42"/>
-    <hyperlink r:id="rId77" ref="B43"/>
-    <hyperlink r:id="rId78" ref="D43"/>
-    <hyperlink r:id="rId79" ref="B44"/>
-    <hyperlink r:id="rId80" ref="D44"/>
-    <hyperlink r:id="rId81" ref="B45"/>
-    <hyperlink r:id="rId82" ref="D45"/>
-    <hyperlink r:id="rId83" ref="B46"/>
-    <hyperlink r:id="rId84" ref="D46"/>
-    <hyperlink r:id="rId85" ref="B47"/>
-    <hyperlink r:id="rId86" ref="D47"/>
-    <hyperlink r:id="rId87" ref="B48"/>
-    <hyperlink r:id="rId88" ref="D48"/>
-    <hyperlink r:id="rId89" ref="B49"/>
-    <hyperlink r:id="rId90" ref="D49"/>
-    <hyperlink r:id="rId91" ref="B50"/>
-    <hyperlink r:id="rId92" ref="D50"/>
-    <hyperlink r:id="rId93" ref="B51"/>
-    <hyperlink r:id="rId94" ref="D51"/>
-    <hyperlink r:id="rId95" ref="B52"/>
-    <hyperlink r:id="rId96" ref="D52"/>
-    <hyperlink r:id="rId97" ref="B53"/>
-    <hyperlink r:id="rId98" ref="D53"/>
-    <hyperlink r:id="rId99" ref="B54"/>
-    <hyperlink r:id="rId100" ref="D54"/>
-    <hyperlink r:id="rId101" ref="B55"/>
-    <hyperlink r:id="rId102" ref="D55"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="E5" r:id="rId6"/>
+    <hyperlink ref="C6" r:id="rId7"/>
+    <hyperlink ref="E6" r:id="rId8"/>
+    <hyperlink ref="C7" r:id="rId9"/>
+    <hyperlink ref="E7" r:id="rId10"/>
+    <hyperlink ref="C8" r:id="rId11"/>
+    <hyperlink ref="E8" r:id="rId12"/>
+    <hyperlink ref="C9" r:id="rId13"/>
+    <hyperlink ref="E9" r:id="rId14"/>
+    <hyperlink ref="C10" r:id="rId15"/>
+    <hyperlink ref="E10" r:id="rId16"/>
+    <hyperlink ref="C12" r:id="rId17"/>
+    <hyperlink ref="E12" r:id="rId18"/>
+    <hyperlink ref="C13" r:id="rId19"/>
+    <hyperlink ref="E13" r:id="rId20"/>
+    <hyperlink ref="C14" r:id="rId21"/>
+    <hyperlink ref="E14" r:id="rId22"/>
+    <hyperlink ref="C15" r:id="rId23"/>
+    <hyperlink ref="E15" r:id="rId24"/>
+    <hyperlink ref="C16" r:id="rId25"/>
+    <hyperlink ref="E16" r:id="rId26"/>
+    <hyperlink ref="C17" r:id="rId27"/>
+    <hyperlink ref="E17" r:id="rId28"/>
+    <hyperlink ref="C18" r:id="rId29"/>
+    <hyperlink ref="E18" r:id="rId30"/>
+    <hyperlink ref="C19" r:id="rId31"/>
+    <hyperlink ref="E19" r:id="rId32"/>
+    <hyperlink ref="C20" r:id="rId33"/>
+    <hyperlink ref="E20" r:id="rId34"/>
+    <hyperlink ref="C21" r:id="rId35"/>
+    <hyperlink ref="E21" r:id="rId36"/>
+    <hyperlink ref="C22" r:id="rId37"/>
+    <hyperlink ref="E22" r:id="rId38"/>
+    <hyperlink ref="C23" r:id="rId39"/>
+    <hyperlink ref="E23" r:id="rId40"/>
+    <hyperlink ref="C24" r:id="rId41"/>
+    <hyperlink ref="E24" r:id="rId42"/>
+    <hyperlink ref="C25" r:id="rId43"/>
+    <hyperlink ref="E25" r:id="rId44"/>
+    <hyperlink ref="C26" r:id="rId45"/>
+    <hyperlink ref="E26" r:id="rId46"/>
+    <hyperlink ref="C27" r:id="rId47"/>
+    <hyperlink ref="E27" r:id="rId48"/>
+    <hyperlink ref="C28" r:id="rId49"/>
+    <hyperlink ref="E28" r:id="rId50"/>
+    <hyperlink ref="C29" r:id="rId51"/>
+    <hyperlink ref="E29" r:id="rId52"/>
+    <hyperlink ref="C30" r:id="rId53"/>
+    <hyperlink ref="E30" r:id="rId54"/>
+    <hyperlink ref="C31" r:id="rId55"/>
+    <hyperlink ref="E31" r:id="rId56"/>
+    <hyperlink ref="C32" r:id="rId57"/>
+    <hyperlink ref="E32" r:id="rId58"/>
+    <hyperlink ref="C33" r:id="rId59"/>
+    <hyperlink ref="E33" r:id="rId60"/>
+    <hyperlink ref="C34" r:id="rId61"/>
+    <hyperlink ref="E34" r:id="rId62"/>
+    <hyperlink ref="C35" r:id="rId63"/>
+    <hyperlink ref="E35" r:id="rId64"/>
+    <hyperlink ref="C36" r:id="rId65"/>
+    <hyperlink ref="E36" r:id="rId66"/>
+    <hyperlink ref="C37" r:id="rId67"/>
+    <hyperlink ref="E37" r:id="rId68"/>
+    <hyperlink ref="C38" r:id="rId69"/>
+    <hyperlink ref="E38" r:id="rId70"/>
+    <hyperlink ref="C40" r:id="rId71"/>
+    <hyperlink ref="E40" r:id="rId72"/>
+    <hyperlink ref="C41" r:id="rId73"/>
+    <hyperlink ref="E41" r:id="rId74"/>
+    <hyperlink ref="C42" r:id="rId75"/>
+    <hyperlink ref="E42" r:id="rId76"/>
+    <hyperlink ref="C43" r:id="rId77"/>
+    <hyperlink ref="E43" r:id="rId78"/>
+    <hyperlink ref="C44" r:id="rId79"/>
+    <hyperlink ref="E44" r:id="rId80"/>
+    <hyperlink ref="C45" r:id="rId81"/>
+    <hyperlink ref="E45" r:id="rId82"/>
+    <hyperlink ref="C46" r:id="rId83"/>
+    <hyperlink ref="E46" r:id="rId84"/>
+    <hyperlink ref="C47" r:id="rId85"/>
+    <hyperlink ref="E47" r:id="rId86"/>
+    <hyperlink ref="C48" r:id="rId87"/>
+    <hyperlink ref="E48" r:id="rId88"/>
+    <hyperlink ref="C49" r:id="rId89"/>
+    <hyperlink ref="E49" r:id="rId90"/>
+    <hyperlink ref="C50" r:id="rId91"/>
+    <hyperlink ref="E50" r:id="rId92"/>
+    <hyperlink ref="C51" r:id="rId93"/>
+    <hyperlink ref="E51" r:id="rId94"/>
+    <hyperlink ref="C52" r:id="rId95"/>
+    <hyperlink ref="E52" r:id="rId96"/>
+    <hyperlink ref="C53" r:id="rId97"/>
+    <hyperlink ref="E53" r:id="rId98"/>
+    <hyperlink ref="C54" r:id="rId99"/>
+    <hyperlink ref="E54" r:id="rId100"/>
+    <hyperlink ref="C55" r:id="rId101"/>
+    <hyperlink ref="E55" r:id="rId102"/>
   </hyperlinks>
-  <drawing r:id="rId103"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/Coding Decoded Dynamic Programming SDE sheet.xlsx
+++ b/src/main/resources/Coding Decoded Dynamic Programming SDE sheet.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workshop\my-learnings\ram-dsa-mad\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRAMAM11\My-Garrage\personal-workshop\dsa-practise\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC9ABB5-91FC-4BC7-ABA0-AF116F2B68E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="30" yWindow="645" windowWidth="20460" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
   <si>
     <t xml:space="preserve">Question marked with** are must do before interview </t>
   </si>
@@ -597,8 +609,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -692,6 +704,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -751,10 +770,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -800,8 +820,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1014,20 +1039,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="70.6640625" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
@@ -1044,7 +1069,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="13.8">
+    <row r="2" spans="1:8" ht="12.75">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1054,7 +1079,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="13.8">
+    <row r="3" spans="1:8" ht="12.75">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1074,25 +1099,27 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="13.8">
+    <row r="4" spans="1:8" ht="12.75">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="13.8">
+    <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1137,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="13.8">
+    <row r="6" spans="1:8" ht="12.75">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1128,7 +1155,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="13.8">
+    <row r="7" spans="1:8" ht="12.75">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1146,7 +1173,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="13.8">
+    <row r="8" spans="1:8" ht="12.75">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1164,7 +1191,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="13.8">
+    <row r="9" spans="1:8" ht="12.75">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1209,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="13.8">
+    <row r="10" spans="1:8" ht="12.75">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1200,14 +1227,14 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="13.8">
+    <row r="11" spans="1:8" ht="12.75">
       <c r="A11" s="10"/>
       <c r="B11" s="24"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="13.8">
+    <row r="12" spans="1:8" ht="12.75">
       <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
@@ -1225,7 +1252,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" ht="13.8">
+    <row r="13" spans="1:8" ht="12.75">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -1243,7 +1270,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" ht="13.8">
+    <row r="14" spans="1:8" ht="12.75">
       <c r="A14" s="13" t="s">
         <v>33</v>
       </c>
@@ -1261,7 +1288,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" ht="13.8">
+    <row r="15" spans="1:8" ht="12.75">
       <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
@@ -1279,7 +1306,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:8" ht="13.8">
+    <row r="16" spans="1:8" ht="12.75">
       <c r="A16" s="13" t="s">
         <v>39</v>
       </c>
@@ -1297,7 +1324,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:8" ht="13.8">
+    <row r="17" spans="1:8" ht="12.75">
       <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
@@ -1315,7 +1342,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
     </row>
-    <row r="18" spans="1:8" ht="13.8">
+    <row r="18" spans="1:8" ht="12.75">
       <c r="A18" s="13" t="s">
         <v>45</v>
       </c>
@@ -1333,7 +1360,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
     </row>
-    <row r="19" spans="1:8" ht="13.8">
+    <row r="19" spans="1:8" ht="12.75">
       <c r="A19" s="13" t="s">
         <v>48</v>
       </c>
@@ -1351,7 +1378,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
     </row>
-    <row r="20" spans="1:8" ht="13.8">
+    <row r="20" spans="1:8" ht="12.75">
       <c r="A20" s="13" t="s">
         <v>51</v>
       </c>
@@ -1369,7 +1396,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" spans="1:8" ht="13.8">
+    <row r="21" spans="1:8" ht="12.75">
       <c r="A21" s="13" t="s">
         <v>54</v>
       </c>
@@ -1387,7 +1414,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
     </row>
-    <row r="22" spans="1:8" ht="13.8">
+    <row r="22" spans="1:8" ht="12.75">
       <c r="A22" s="13" t="s">
         <v>57</v>
       </c>
@@ -1405,7 +1432,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
     </row>
-    <row r="23" spans="1:8" ht="13.8">
+    <row r="23" spans="1:8" ht="12.75">
       <c r="A23" s="13" t="s">
         <v>60</v>
       </c>
@@ -1423,7 +1450,7 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="1:8" ht="13.8">
+    <row r="24" spans="1:8" ht="12.75">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
@@ -1441,7 +1468,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
     </row>
-    <row r="25" spans="1:8" ht="13.8">
+    <row r="25" spans="1:8" ht="12.75">
       <c r="A25" s="13" t="s">
         <v>66</v>
       </c>
@@ -1459,7 +1486,7 @@
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
     </row>
-    <row r="26" spans="1:8" ht="13.8">
+    <row r="26" spans="1:8" ht="12.75">
       <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
@@ -1477,7 +1504,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="27" spans="1:8" ht="13.8">
+    <row r="27" spans="1:8" ht="12.75">
       <c r="A27" s="13" t="s">
         <v>72</v>
       </c>
@@ -1495,7 +1522,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
     </row>
-    <row r="28" spans="1:8" ht="13.8">
+    <row r="28" spans="1:8" ht="12.75">
       <c r="A28" s="13" t="s">
         <v>75</v>
       </c>
@@ -1513,7 +1540,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
     </row>
-    <row r="29" spans="1:8" ht="13.8">
+    <row r="29" spans="1:8" ht="12.75">
       <c r="A29" s="13" t="s">
         <v>78</v>
       </c>
@@ -1531,7 +1558,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
     </row>
-    <row r="30" spans="1:8" ht="13.8">
+    <row r="30" spans="1:8" ht="12.75">
       <c r="A30" s="13" t="s">
         <v>81</v>
       </c>
@@ -1549,7 +1576,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
     </row>
-    <row r="31" spans="1:8" ht="13.8">
+    <row r="31" spans="1:8" ht="12.75">
       <c r="A31" s="13" t="s">
         <v>84</v>
       </c>
@@ -1567,7 +1594,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="1:8" ht="13.8">
+    <row r="32" spans="1:8" ht="12.75">
       <c r="A32" s="13" t="s">
         <v>87</v>
       </c>
@@ -1585,7 +1612,7 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
     </row>
-    <row r="33" spans="1:8" ht="13.8">
+    <row r="33" spans="1:8" ht="12.75">
       <c r="A33" s="13" t="s">
         <v>90</v>
       </c>
@@ -1603,7 +1630,7 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
     </row>
-    <row r="34" spans="1:8" ht="13.8">
+    <row r="34" spans="1:8" ht="12.75">
       <c r="A34" s="13" t="s">
         <v>93</v>
       </c>
@@ -1621,7 +1648,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
     </row>
-    <row r="35" spans="1:8" ht="13.8">
+    <row r="35" spans="1:8" ht="12.75">
       <c r="A35" s="13" t="s">
         <v>96</v>
       </c>
@@ -1639,7 +1666,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
     </row>
-    <row r="36" spans="1:8" ht="13.8">
+    <row r="36" spans="1:8" ht="12.75">
       <c r="A36" s="13" t="s">
         <v>99</v>
       </c>
@@ -1657,7 +1684,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
     </row>
-    <row r="37" spans="1:8" ht="13.8">
+    <row r="37" spans="1:8" ht="12.75">
       <c r="A37" s="13" t="s">
         <v>102</v>
       </c>
@@ -1675,7 +1702,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" spans="1:8" ht="13.8">
+    <row r="38" spans="1:8" ht="12.75">
       <c r="A38" s="13" t="s">
         <v>105</v>
       </c>
@@ -1696,7 +1723,7 @@
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="B39" s="24"/>
     </row>
-    <row r="40" spans="1:8" ht="13.8">
+    <row r="40" spans="1:8" ht="12.75">
       <c r="A40" s="18" t="s">
         <v>108</v>
       </c>
@@ -1714,7 +1741,7 @@
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
     </row>
-    <row r="41" spans="1:8" ht="13.8">
+    <row r="41" spans="1:8" ht="12.75">
       <c r="A41" s="18" t="s">
         <v>112</v>
       </c>
@@ -1732,7 +1759,7 @@
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
     </row>
-    <row r="42" spans="1:8" ht="13.8">
+    <row r="42" spans="1:8" ht="12.75">
       <c r="A42" s="18" t="s">
         <v>115</v>
       </c>
@@ -1750,7 +1777,7 @@
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
     </row>
-    <row r="43" spans="1:8" ht="13.8">
+    <row r="43" spans="1:8" ht="12.75">
       <c r="A43" s="18" t="s">
         <v>118</v>
       </c>
@@ -1768,7 +1795,7 @@
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
     </row>
-    <row r="44" spans="1:8" ht="13.8">
+    <row r="44" spans="1:8" ht="12.75">
       <c r="A44" s="18" t="s">
         <v>121</v>
       </c>
@@ -1786,7 +1813,7 @@
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
     </row>
-    <row r="45" spans="1:8" ht="13.8">
+    <row r="45" spans="1:8" ht="12.75">
       <c r="A45" s="18" t="s">
         <v>124</v>
       </c>
@@ -1804,7 +1831,7 @@
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
     </row>
-    <row r="46" spans="1:8" ht="13.8">
+    <row r="46" spans="1:8" ht="12.75">
       <c r="A46" s="18" t="s">
         <v>127</v>
       </c>
@@ -1822,7 +1849,7 @@
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:8" ht="13.8">
+    <row r="47" spans="1:8" ht="12.75">
       <c r="A47" s="18" t="s">
         <v>130</v>
       </c>
@@ -1840,7 +1867,7 @@
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
     </row>
-    <row r="48" spans="1:8" ht="13.8">
+    <row r="48" spans="1:8" ht="12.75">
       <c r="A48" s="18" t="s">
         <v>133</v>
       </c>
@@ -1858,7 +1885,7 @@
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
     </row>
-    <row r="49" spans="1:8" ht="13.8">
+    <row r="49" spans="1:8" ht="12.75">
       <c r="A49" s="18" t="s">
         <v>136</v>
       </c>
@@ -1876,7 +1903,7 @@
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
     </row>
-    <row r="50" spans="1:8" ht="13.8">
+    <row r="50" spans="1:8" ht="12.75">
       <c r="A50" s="18" t="s">
         <v>139</v>
       </c>
@@ -1894,7 +1921,7 @@
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
     </row>
-    <row r="51" spans="1:8" ht="13.8">
+    <row r="51" spans="1:8" ht="12.75">
       <c r="A51" s="18" t="s">
         <v>142</v>
       </c>
@@ -1912,7 +1939,7 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
     </row>
-    <row r="52" spans="1:8" ht="13.8">
+    <row r="52" spans="1:8" ht="12.75">
       <c r="A52" s="18" t="s">
         <v>145</v>
       </c>
@@ -1930,7 +1957,7 @@
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
     </row>
-    <row r="53" spans="1:8" ht="13.8">
+    <row r="53" spans="1:8" ht="12.75">
       <c r="A53" s="18" t="s">
         <v>148</v>
       </c>
@@ -1948,7 +1975,7 @@
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
     </row>
-    <row r="54" spans="1:8" ht="13.8">
+    <row r="54" spans="1:8" ht="12.75">
       <c r="A54" s="18" t="s">
         <v>151</v>
       </c>
@@ -1966,7 +1993,7 @@
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
     </row>
-    <row r="55" spans="1:8" ht="13.8">
+    <row r="55" spans="1:8" ht="12.75">
       <c r="A55" s="18" t="s">
         <v>154</v>
       </c>
@@ -2337,108 +2364,108 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="C6" r:id="rId7"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="C7" r:id="rId9"/>
-    <hyperlink ref="E7" r:id="rId10"/>
-    <hyperlink ref="C8" r:id="rId11"/>
-    <hyperlink ref="E8" r:id="rId12"/>
-    <hyperlink ref="C9" r:id="rId13"/>
-    <hyperlink ref="E9" r:id="rId14"/>
-    <hyperlink ref="C10" r:id="rId15"/>
-    <hyperlink ref="E10" r:id="rId16"/>
-    <hyperlink ref="C12" r:id="rId17"/>
-    <hyperlink ref="E12" r:id="rId18"/>
-    <hyperlink ref="C13" r:id="rId19"/>
-    <hyperlink ref="E13" r:id="rId20"/>
-    <hyperlink ref="C14" r:id="rId21"/>
-    <hyperlink ref="E14" r:id="rId22"/>
-    <hyperlink ref="C15" r:id="rId23"/>
-    <hyperlink ref="E15" r:id="rId24"/>
-    <hyperlink ref="C16" r:id="rId25"/>
-    <hyperlink ref="E16" r:id="rId26"/>
-    <hyperlink ref="C17" r:id="rId27"/>
-    <hyperlink ref="E17" r:id="rId28"/>
-    <hyperlink ref="C18" r:id="rId29"/>
-    <hyperlink ref="E18" r:id="rId30"/>
-    <hyperlink ref="C19" r:id="rId31"/>
-    <hyperlink ref="E19" r:id="rId32"/>
-    <hyperlink ref="C20" r:id="rId33"/>
-    <hyperlink ref="E20" r:id="rId34"/>
-    <hyperlink ref="C21" r:id="rId35"/>
-    <hyperlink ref="E21" r:id="rId36"/>
-    <hyperlink ref="C22" r:id="rId37"/>
-    <hyperlink ref="E22" r:id="rId38"/>
-    <hyperlink ref="C23" r:id="rId39"/>
-    <hyperlink ref="E23" r:id="rId40"/>
-    <hyperlink ref="C24" r:id="rId41"/>
-    <hyperlink ref="E24" r:id="rId42"/>
-    <hyperlink ref="C25" r:id="rId43"/>
-    <hyperlink ref="E25" r:id="rId44"/>
-    <hyperlink ref="C26" r:id="rId45"/>
-    <hyperlink ref="E26" r:id="rId46"/>
-    <hyperlink ref="C27" r:id="rId47"/>
-    <hyperlink ref="E27" r:id="rId48"/>
-    <hyperlink ref="C28" r:id="rId49"/>
-    <hyperlink ref="E28" r:id="rId50"/>
-    <hyperlink ref="C29" r:id="rId51"/>
-    <hyperlink ref="E29" r:id="rId52"/>
-    <hyperlink ref="C30" r:id="rId53"/>
-    <hyperlink ref="E30" r:id="rId54"/>
-    <hyperlink ref="C31" r:id="rId55"/>
-    <hyperlink ref="E31" r:id="rId56"/>
-    <hyperlink ref="C32" r:id="rId57"/>
-    <hyperlink ref="E32" r:id="rId58"/>
-    <hyperlink ref="C33" r:id="rId59"/>
-    <hyperlink ref="E33" r:id="rId60"/>
-    <hyperlink ref="C34" r:id="rId61"/>
-    <hyperlink ref="E34" r:id="rId62"/>
-    <hyperlink ref="C35" r:id="rId63"/>
-    <hyperlink ref="E35" r:id="rId64"/>
-    <hyperlink ref="C36" r:id="rId65"/>
-    <hyperlink ref="E36" r:id="rId66"/>
-    <hyperlink ref="C37" r:id="rId67"/>
-    <hyperlink ref="E37" r:id="rId68"/>
-    <hyperlink ref="C38" r:id="rId69"/>
-    <hyperlink ref="E38" r:id="rId70"/>
-    <hyperlink ref="C40" r:id="rId71"/>
-    <hyperlink ref="E40" r:id="rId72"/>
-    <hyperlink ref="C41" r:id="rId73"/>
-    <hyperlink ref="E41" r:id="rId74"/>
-    <hyperlink ref="C42" r:id="rId75"/>
-    <hyperlink ref="E42" r:id="rId76"/>
-    <hyperlink ref="C43" r:id="rId77"/>
-    <hyperlink ref="E43" r:id="rId78"/>
-    <hyperlink ref="C44" r:id="rId79"/>
-    <hyperlink ref="E44" r:id="rId80"/>
-    <hyperlink ref="C45" r:id="rId81"/>
-    <hyperlink ref="E45" r:id="rId82"/>
-    <hyperlink ref="C46" r:id="rId83"/>
-    <hyperlink ref="E46" r:id="rId84"/>
-    <hyperlink ref="C47" r:id="rId85"/>
-    <hyperlink ref="E47" r:id="rId86"/>
-    <hyperlink ref="C48" r:id="rId87"/>
-    <hyperlink ref="E48" r:id="rId88"/>
-    <hyperlink ref="C49" r:id="rId89"/>
-    <hyperlink ref="E49" r:id="rId90"/>
-    <hyperlink ref="C50" r:id="rId91"/>
-    <hyperlink ref="E50" r:id="rId92"/>
-    <hyperlink ref="C51" r:id="rId93"/>
-    <hyperlink ref="E51" r:id="rId94"/>
-    <hyperlink ref="C52" r:id="rId95"/>
-    <hyperlink ref="E52" r:id="rId96"/>
-    <hyperlink ref="C53" r:id="rId97"/>
-    <hyperlink ref="E53" r:id="rId98"/>
-    <hyperlink ref="C54" r:id="rId99"/>
-    <hyperlink ref="E54" r:id="rId100"/>
-    <hyperlink ref="C55" r:id="rId101"/>
-    <hyperlink ref="E55" r:id="rId102"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C21" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C26" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E26" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C27" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E27" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C28" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E28" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E29" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C30" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E30" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C31" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E31" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C32" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E32" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C33" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E33" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E34" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C35" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E35" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C36" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E36" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C37" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E37" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C38" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E38" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C40" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E40" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C41" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E41" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C42" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E42" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C43" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E43" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C44" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E44" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C45" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E45" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C46" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E46" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C47" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E47" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C48" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E48" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C49" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E49" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C50" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E50" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C51" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E51" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C52" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E52" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C53" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E53" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C54" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E54" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C55" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E55" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/Coding Decoded Dynamic Programming SDE sheet.xlsx
+++ b/src/main/resources/Coding Decoded Dynamic Programming SDE sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRAMAM11\My-Garrage\personal-workshop\dsa-practise\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC9ABB5-91FC-4BC7-ABA0-AF116F2B68E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576E3D11-2751-4E69-95D8-4D7F1ADE56B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="645" windowWidth="20460" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="161">
   <si>
     <t xml:space="preserve">Question marked with** are must do before interview </t>
   </si>
@@ -604,6 +604,12 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>completed</t>
   </si>
 </sst>
 </file>
@@ -774,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -823,6 +829,9 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1043,1429 +1052,1608 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="70.7109375" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="12.75">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="F4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75">
       <c r="A11" s="10"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75">
+      <c r="C11" s="27"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75">
       <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="24"/>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75">
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="24"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75">
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="12.75">
       <c r="A14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="24"/>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75">
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" ht="12.75">
       <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="24"/>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75">
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" ht="12.75">
       <c r="A16" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="24"/>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75">
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75">
       <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="24"/>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75">
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75">
       <c r="A18" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="24"/>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75">
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75">
       <c r="A19" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="24"/>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="E19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75">
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75">
       <c r="A20" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="24"/>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="F20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75">
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75">
       <c r="A21" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="24"/>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="F21" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75">
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75">
       <c r="A22" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B22" s="24"/>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75">
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75">
       <c r="A23" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="24"/>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="E23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="F23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75">
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="24"/>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="E24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="F24" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75">
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75">
       <c r="A25" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="24"/>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="F25" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75">
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75">
       <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="24"/>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="E26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="F26" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75">
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75">
       <c r="A27" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B27" s="24"/>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="E27" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="F27" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75">
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75">
       <c r="A28" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B28" s="24"/>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="F28" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75">
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75">
       <c r="A29" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B29" s="24"/>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="27"/>
+      <c r="D29" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="E29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="F29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.75">
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.75">
       <c r="A30" s="13" t="s">
         <v>81</v>
       </c>
       <c r="B30" s="24"/>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="E30" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="F30" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.75">
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.75">
       <c r="A31" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B31" s="24"/>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="E31" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.75">
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" ht="12.75">
       <c r="A32" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="24"/>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="27"/>
+      <c r="D32" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="E32" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="F32" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="1:8" ht="12.75">
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" ht="12.75">
       <c r="A33" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B33" s="24"/>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="E33" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="F33" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="1:8" ht="12.75">
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75">
       <c r="A34" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B34" s="24"/>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="E34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="F34" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="1:8" ht="12.75">
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" ht="12.75">
       <c r="A35" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B35" s="24"/>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="E35" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="F35" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="1:8" ht="12.75">
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" ht="12.75">
       <c r="A36" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B36" s="24"/>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="E36" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="F36" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
-    </row>
-    <row r="37" spans="1:8" ht="12.75">
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" ht="12.75">
       <c r="A37" s="13" t="s">
         <v>102</v>
       </c>
       <c r="B37" s="24"/>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="E37" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="F37" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="1:8" ht="12.75">
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" ht="12.75">
       <c r="A38" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B38" s="24"/>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="E38" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="F38" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="B39" s="24"/>
-    </row>
-    <row r="40" spans="1:8" ht="12.75">
+      <c r="C39" s="27"/>
+    </row>
+    <row r="40" spans="1:9" ht="12.75">
       <c r="A40" s="18" t="s">
         <v>108</v>
       </c>
       <c r="B40" s="24"/>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="E40" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="F40" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="22"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
-    </row>
-    <row r="41" spans="1:8" ht="12.75">
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:9" ht="12.75">
       <c r="A41" s="18" t="s">
         <v>112</v>
       </c>
       <c r="B41" s="24"/>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="27"/>
+      <c r="D41" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="E41" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="F41" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
-    </row>
-    <row r="42" spans="1:8" ht="12.75">
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="1:9" ht="12.75">
       <c r="A42" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B42" s="24"/>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="27"/>
+      <c r="D42" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="E42" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="F42" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:8" ht="12.75">
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:9" ht="12.75">
       <c r="A43" s="18" t="s">
         <v>118</v>
       </c>
       <c r="B43" s="24"/>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="27"/>
+      <c r="D43" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="E43" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="F43" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
-    </row>
-    <row r="44" spans="1:8" ht="12.75">
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="1:9" ht="12.75">
       <c r="A44" s="18" t="s">
         <v>121</v>
       </c>
       <c r="B44" s="24"/>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="27"/>
+      <c r="D44" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="E44" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="F44" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
-    </row>
-    <row r="45" spans="1:8" ht="12.75">
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" spans="1:9" ht="12.75">
       <c r="A45" s="18" t="s">
         <v>124</v>
       </c>
       <c r="B45" s="24"/>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="27"/>
+      <c r="D45" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="E45" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="F45" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="F45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
-    </row>
-    <row r="46" spans="1:8" ht="12.75">
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" spans="1:9" ht="12.75">
       <c r="A46" s="18" t="s">
         <v>127</v>
       </c>
       <c r="B46" s="24"/>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="27"/>
+      <c r="D46" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="E46" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="F46" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="22"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
-    </row>
-    <row r="47" spans="1:8" ht="12.75">
+      <c r="I46" s="22"/>
+    </row>
+    <row r="47" spans="1:9" ht="12.75">
       <c r="A47" s="18" t="s">
         <v>130</v>
       </c>
       <c r="B47" s="24"/>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="27"/>
+      <c r="D47" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="E47" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="F47" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
-    </row>
-    <row r="48" spans="1:8" ht="12.75">
+      <c r="I47" s="22"/>
+    </row>
+    <row r="48" spans="1:9" ht="12.75">
       <c r="A48" s="18" t="s">
         <v>133</v>
       </c>
       <c r="B48" s="24"/>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="E48" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="F48" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
-    </row>
-    <row r="49" spans="1:8" ht="12.75">
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" spans="1:9" ht="12.75">
       <c r="A49" s="18" t="s">
         <v>136</v>
       </c>
       <c r="B49" s="24"/>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="E49" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="F49" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="F49" s="22"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
-    </row>
-    <row r="50" spans="1:8" ht="12.75">
+      <c r="I49" s="22"/>
+    </row>
+    <row r="50" spans="1:9" ht="12.75">
       <c r="A50" s="18" t="s">
         <v>139</v>
       </c>
       <c r="B50" s="24"/>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="27"/>
+      <c r="D50" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="E50" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="F50" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="F50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
-    </row>
-    <row r="51" spans="1:8" ht="12.75">
+      <c r="I50" s="22"/>
+    </row>
+    <row r="51" spans="1:9" ht="12.75">
       <c r="A51" s="18" t="s">
         <v>142</v>
       </c>
       <c r="B51" s="24"/>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="27"/>
+      <c r="D51" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="E51" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="F51" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
-    </row>
-    <row r="52" spans="1:8" ht="12.75">
+      <c r="I51" s="22"/>
+    </row>
+    <row r="52" spans="1:9" ht="12.75">
       <c r="A52" s="18" t="s">
         <v>145</v>
       </c>
       <c r="B52" s="24"/>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="27"/>
+      <c r="D52" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="E52" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="F52" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F52" s="22"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
-    </row>
-    <row r="53" spans="1:8" ht="12.75">
+      <c r="I52" s="22"/>
+    </row>
+    <row r="53" spans="1:9" ht="12.75">
       <c r="A53" s="18" t="s">
         <v>148</v>
       </c>
       <c r="B53" s="24"/>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="27"/>
+      <c r="D53" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="E53" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="F53" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
-    </row>
-    <row r="54" spans="1:8" ht="12.75">
+      <c r="I53" s="22"/>
+    </row>
+    <row r="54" spans="1:9" ht="12.75">
       <c r="A54" s="18" t="s">
         <v>151</v>
       </c>
       <c r="B54" s="24"/>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="27"/>
+      <c r="D54" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="E54" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="F54" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="F54" s="22"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
-    </row>
-    <row r="55" spans="1:8" ht="12.75">
+      <c r="I54" s="22"/>
+    </row>
+    <row r="55" spans="1:9" ht="12.75">
       <c r="A55" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B55" s="24"/>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="27"/>
+      <c r="D55" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="E55" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="F55" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F55" s="22"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I55" s="22"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1">
       <c r="B56" s="24"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+      <c r="C56" s="27"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1">
       <c r="B57" s="24"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+      <c r="C57" s="27"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1">
       <c r="B58" s="24"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+      <c r="C58" s="27"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1">
       <c r="B59" s="24"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+      <c r="C59" s="27"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1">
       <c r="B60" s="24"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+      <c r="C60" s="27"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1">
       <c r="B61" s="24"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+      <c r="C61" s="27"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1">
       <c r="B62" s="24"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+      <c r="C62" s="27"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1">
       <c r="B63" s="24"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+      <c r="C63" s="27"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1">
       <c r="B64" s="24"/>
-    </row>
-    <row r="65" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C64" s="27"/>
+    </row>
+    <row r="65" spans="2:3" ht="15.75" customHeight="1">
       <c r="B65" s="24"/>
-    </row>
-    <row r="66" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C65" s="27"/>
+    </row>
+    <row r="66" spans="2:3" ht="15.75" customHeight="1">
       <c r="B66" s="24"/>
-    </row>
-    <row r="67" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C66" s="27"/>
+    </row>
+    <row r="67" spans="2:3" ht="15.75" customHeight="1">
       <c r="B67" s="24"/>
-    </row>
-    <row r="68" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C67" s="27"/>
+    </row>
+    <row r="68" spans="2:3" ht="15.75" customHeight="1">
       <c r="B68" s="24"/>
-    </row>
-    <row r="69" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C68" s="27"/>
+    </row>
+    <row r="69" spans="2:3" ht="15.75" customHeight="1">
       <c r="B69" s="24"/>
-    </row>
-    <row r="70" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C69" s="27"/>
+    </row>
+    <row r="70" spans="2:3" ht="15.75" customHeight="1">
       <c r="B70" s="24"/>
-    </row>
-    <row r="71" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C70" s="27"/>
+    </row>
+    <row r="71" spans="2:3" ht="15.75" customHeight="1">
       <c r="B71" s="24"/>
-    </row>
-    <row r="72" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C71" s="27"/>
+    </row>
+    <row r="72" spans="2:3" ht="15.75" customHeight="1">
       <c r="B72" s="24"/>
-    </row>
-    <row r="73" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C72" s="27"/>
+    </row>
+    <row r="73" spans="2:3" ht="15.75" customHeight="1">
       <c r="B73" s="24"/>
-    </row>
-    <row r="74" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C73" s="27"/>
+    </row>
+    <row r="74" spans="2:3" ht="15.75" customHeight="1">
       <c r="B74" s="24"/>
-    </row>
-    <row r="75" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C74" s="27"/>
+    </row>
+    <row r="75" spans="2:3" ht="15.75" customHeight="1">
       <c r="B75" s="24"/>
-    </row>
-    <row r="76" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C75" s="27"/>
+    </row>
+    <row r="76" spans="2:3" ht="15.75" customHeight="1">
       <c r="B76" s="24"/>
-    </row>
-    <row r="77" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C76" s="27"/>
+    </row>
+    <row r="77" spans="2:3" ht="15.75" customHeight="1">
       <c r="B77" s="24"/>
-    </row>
-    <row r="78" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C77" s="27"/>
+    </row>
+    <row r="78" spans="2:3" ht="15.75" customHeight="1">
       <c r="B78" s="24"/>
-    </row>
-    <row r="79" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C78" s="27"/>
+    </row>
+    <row r="79" spans="2:3" ht="15.75" customHeight="1">
       <c r="B79" s="24"/>
-    </row>
-    <row r="80" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C79" s="27"/>
+    </row>
+    <row r="80" spans="2:3" ht="15.75" customHeight="1">
       <c r="B80" s="24"/>
-    </row>
-    <row r="81" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C80" s="27"/>
+    </row>
+    <row r="81" spans="2:3" ht="15.75" customHeight="1">
       <c r="B81" s="24"/>
-    </row>
-    <row r="82" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C81" s="27"/>
+    </row>
+    <row r="82" spans="2:3" ht="15.75" customHeight="1">
       <c r="B82" s="24"/>
-    </row>
-    <row r="83" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C82" s="27"/>
+    </row>
+    <row r="83" spans="2:3" ht="15.75" customHeight="1">
       <c r="B83" s="24"/>
-    </row>
-    <row r="84" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C83" s="27"/>
+    </row>
+    <row r="84" spans="2:3" ht="15.75" customHeight="1">
       <c r="B84" s="24"/>
-    </row>
-    <row r="85" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C84" s="27"/>
+    </row>
+    <row r="85" spans="2:3" ht="15.75" customHeight="1">
       <c r="B85" s="24"/>
-    </row>
-    <row r="86" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C85" s="27"/>
+    </row>
+    <row r="86" spans="2:3" ht="15.75" customHeight="1">
       <c r="B86" s="24"/>
-    </row>
-    <row r="87" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C86" s="27"/>
+    </row>
+    <row r="87" spans="2:3" ht="15.75" customHeight="1">
       <c r="B87" s="24"/>
-    </row>
-    <row r="88" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C87" s="27"/>
+    </row>
+    <row r="88" spans="2:3" ht="15.75" customHeight="1">
       <c r="B88" s="24"/>
-    </row>
-    <row r="89" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C88" s="27"/>
+    </row>
+    <row r="89" spans="2:3" ht="15.75" customHeight="1">
       <c r="B89" s="24"/>
-    </row>
-    <row r="90" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C89" s="27"/>
+    </row>
+    <row r="90" spans="2:3" ht="15.75" customHeight="1">
       <c r="B90" s="24"/>
-    </row>
-    <row r="91" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C90" s="27"/>
+    </row>
+    <row r="91" spans="2:3" ht="15.75" customHeight="1">
       <c r="B91" s="24"/>
-    </row>
-    <row r="92" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C91" s="27"/>
+    </row>
+    <row r="92" spans="2:3" ht="15.75" customHeight="1">
       <c r="B92" s="24"/>
-    </row>
-    <row r="93" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C92" s="27"/>
+    </row>
+    <row r="93" spans="2:3" ht="15.75" customHeight="1">
       <c r="B93" s="24"/>
-    </row>
-    <row r="94" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C93" s="27"/>
+    </row>
+    <row r="94" spans="2:3" ht="15.75" customHeight="1">
       <c r="B94" s="24"/>
-    </row>
-    <row r="95" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C94" s="27"/>
+    </row>
+    <row r="95" spans="2:3" ht="15.75" customHeight="1">
       <c r="B95" s="24"/>
-    </row>
-    <row r="96" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C95" s="27"/>
+    </row>
+    <row r="96" spans="2:3" ht="15.75" customHeight="1">
       <c r="B96" s="24"/>
-    </row>
-    <row r="97" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C96" s="27"/>
+    </row>
+    <row r="97" spans="2:3" ht="15.75" customHeight="1">
       <c r="B97" s="24"/>
-    </row>
-    <row r="98" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C97" s="27"/>
+    </row>
+    <row r="98" spans="2:3" ht="15.75" customHeight="1">
       <c r="B98" s="24"/>
-    </row>
-    <row r="99" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C98" s="27"/>
+    </row>
+    <row r="99" spans="2:3" ht="15.75" customHeight="1">
       <c r="B99" s="24"/>
-    </row>
-    <row r="100" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C99" s="27"/>
+    </row>
+    <row r="100" spans="2:3" ht="15.75" customHeight="1">
       <c r="B100" s="24"/>
-    </row>
-    <row r="101" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C100" s="27"/>
+    </row>
+    <row r="101" spans="2:3" ht="15.75" customHeight="1">
       <c r="B101" s="24"/>
-    </row>
-    <row r="102" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C101" s="27"/>
+    </row>
+    <row r="102" spans="2:3" ht="15.75" customHeight="1">
       <c r="B102" s="24"/>
-    </row>
-    <row r="103" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C102" s="27"/>
+    </row>
+    <row r="103" spans="2:3" ht="15.75" customHeight="1">
       <c r="B103" s="24"/>
-    </row>
-    <row r="104" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C103" s="27"/>
+    </row>
+    <row r="104" spans="2:3" ht="15.75" customHeight="1">
       <c r="B104" s="24"/>
-    </row>
-    <row r="105" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C104" s="27"/>
+    </row>
+    <row r="105" spans="2:3" ht="15.75" customHeight="1">
       <c r="B105" s="24"/>
-    </row>
-    <row r="106" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C105" s="27"/>
+    </row>
+    <row r="106" spans="2:3" ht="15.75" customHeight="1">
       <c r="B106" s="24"/>
-    </row>
-    <row r="107" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C106" s="27"/>
+    </row>
+    <row r="107" spans="2:3" ht="15.75" customHeight="1">
       <c r="B107" s="24"/>
-    </row>
-    <row r="108" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C107" s="27"/>
+    </row>
+    <row r="108" spans="2:3" ht="15.75" customHeight="1">
       <c r="B108" s="24"/>
-    </row>
-    <row r="109" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C108" s="27"/>
+    </row>
+    <row r="109" spans="2:3" ht="15.75" customHeight="1">
       <c r="B109" s="24"/>
-    </row>
-    <row r="110" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C109" s="27"/>
+    </row>
+    <row r="110" spans="2:3" ht="15.75" customHeight="1">
       <c r="B110" s="24"/>
-    </row>
-    <row r="111" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C110" s="27"/>
+    </row>
+    <row r="111" spans="2:3" ht="15.75" customHeight="1">
       <c r="B111" s="24"/>
-    </row>
-    <row r="112" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C111" s="27"/>
+    </row>
+    <row r="112" spans="2:3" ht="15.75" customHeight="1">
       <c r="B112" s="24"/>
-    </row>
-    <row r="113" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C112" s="27"/>
+    </row>
+    <row r="113" spans="2:3" ht="15.75" customHeight="1">
       <c r="B113" s="24"/>
-    </row>
-    <row r="114" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C113" s="27"/>
+    </row>
+    <row r="114" spans="2:3" ht="15.75" customHeight="1">
       <c r="B114" s="24"/>
-    </row>
-    <row r="115" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C114" s="27"/>
+    </row>
+    <row r="115" spans="2:3" ht="15.75" customHeight="1">
       <c r="B115" s="24"/>
-    </row>
-    <row r="116" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C115" s="27"/>
+    </row>
+    <row r="116" spans="2:3" ht="15.75" customHeight="1">
       <c r="B116" s="24"/>
-    </row>
-    <row r="117" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C116" s="27"/>
+    </row>
+    <row r="117" spans="2:3" ht="15.75" customHeight="1">
       <c r="B117" s="24"/>
-    </row>
-    <row r="118" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C117" s="27"/>
+    </row>
+    <row r="118" spans="2:3" ht="15.75" customHeight="1">
       <c r="B118" s="24"/>
-    </row>
-    <row r="119" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C118" s="27"/>
+    </row>
+    <row r="119" spans="2:3" ht="15.75" customHeight="1">
       <c r="B119" s="24"/>
-    </row>
-    <row r="120" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C119" s="27"/>
+    </row>
+    <row r="120" spans="2:3" ht="15.75" customHeight="1">
       <c r="B120" s="24"/>
-    </row>
-    <row r="121" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C120" s="27"/>
+    </row>
+    <row r="121" spans="2:3" ht="15.75" customHeight="1">
       <c r="B121" s="24"/>
-    </row>
-    <row r="122" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C121" s="27"/>
+    </row>
+    <row r="122" spans="2:3" ht="15.75" customHeight="1">
       <c r="B122" s="24"/>
-    </row>
-    <row r="123" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C122" s="27"/>
+    </row>
+    <row r="123" spans="2:3" ht="15.75" customHeight="1">
       <c r="B123" s="24"/>
-    </row>
-    <row r="124" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C123" s="27"/>
+    </row>
+    <row r="124" spans="2:3" ht="15.75" customHeight="1">
       <c r="B124" s="24"/>
-    </row>
-    <row r="125" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C124" s="27"/>
+    </row>
+    <row r="125" spans="2:3" ht="15.75" customHeight="1">
       <c r="B125" s="24"/>
-    </row>
-    <row r="126" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C125" s="27"/>
+    </row>
+    <row r="126" spans="2:3" ht="15.75" customHeight="1">
       <c r="B126" s="24"/>
-    </row>
-    <row r="127" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C126" s="27"/>
+    </row>
+    <row r="127" spans="2:3" ht="15.75" customHeight="1">
       <c r="B127" s="24"/>
-    </row>
-    <row r="128" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C127" s="27"/>
+    </row>
+    <row r="128" spans="2:3" ht="15.75" customHeight="1">
       <c r="B128" s="24"/>
-    </row>
-    <row r="129" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C128" s="27"/>
+    </row>
+    <row r="129" spans="2:3" ht="15.75" customHeight="1">
       <c r="B129" s="24"/>
-    </row>
-    <row r="130" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C129" s="27"/>
+    </row>
+    <row r="130" spans="2:3" ht="15.75" customHeight="1">
       <c r="B130" s="24"/>
-    </row>
-    <row r="131" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C130" s="27"/>
+    </row>
+    <row r="131" spans="2:3" ht="15.75" customHeight="1">
       <c r="B131" s="24"/>
-    </row>
-    <row r="132" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C131" s="27"/>
+    </row>
+    <row r="132" spans="2:3" ht="15.75" customHeight="1">
       <c r="B132" s="24"/>
-    </row>
-    <row r="133" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C132" s="27"/>
+    </row>
+    <row r="133" spans="2:3" ht="15.75" customHeight="1">
       <c r="B133" s="24"/>
-    </row>
-    <row r="134" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C133" s="27"/>
+    </row>
+    <row r="134" spans="2:3" ht="15.75" customHeight="1">
       <c r="B134" s="24"/>
-    </row>
-    <row r="135" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C134" s="27"/>
+    </row>
+    <row r="135" spans="2:3" ht="15.75" customHeight="1">
       <c r="B135" s="24"/>
-    </row>
-    <row r="136" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C135" s="27"/>
+    </row>
+    <row r="136" spans="2:3" ht="15.75" customHeight="1">
       <c r="B136" s="24"/>
-    </row>
-    <row r="137" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C136" s="27"/>
+    </row>
+    <row r="137" spans="2:3" ht="15.75" customHeight="1">
       <c r="B137" s="24"/>
-    </row>
-    <row r="138" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C137" s="27"/>
+    </row>
+    <row r="138" spans="2:3" ht="15.75" customHeight="1">
       <c r="B138" s="24"/>
-    </row>
-    <row r="139" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C138" s="27"/>
+    </row>
+    <row r="139" spans="2:3" ht="15.75" customHeight="1">
       <c r="B139" s="24"/>
-    </row>
-    <row r="140" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C139" s="27"/>
+    </row>
+    <row r="140" spans="2:3" ht="15.75" customHeight="1">
       <c r="B140" s="24"/>
-    </row>
-    <row r="141" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C140" s="27"/>
+    </row>
+    <row r="141" spans="2:3" ht="15.75" customHeight="1">
       <c r="B141" s="24"/>
-    </row>
-    <row r="142" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C141" s="27"/>
+    </row>
+    <row r="142" spans="2:3" ht="15.75" customHeight="1">
       <c r="B142" s="24"/>
-    </row>
-    <row r="143" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C142" s="27"/>
+    </row>
+    <row r="143" spans="2:3" ht="15.75" customHeight="1">
       <c r="B143" s="24"/>
-    </row>
-    <row r="144" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C143" s="27"/>
+    </row>
+    <row r="144" spans="2:3" ht="15.75" customHeight="1">
       <c r="B144" s="24"/>
-    </row>
-    <row r="145" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C144" s="27"/>
+    </row>
+    <row r="145" spans="2:3" ht="15.75" customHeight="1">
       <c r="B145" s="24"/>
-    </row>
-    <row r="146" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C145" s="27"/>
+    </row>
+    <row r="146" spans="2:3" ht="15.75" customHeight="1">
       <c r="B146" s="24"/>
-    </row>
-    <row r="147" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C146" s="27"/>
+    </row>
+    <row r="147" spans="2:3" ht="15.75" customHeight="1">
       <c r="B147" s="24"/>
-    </row>
-    <row r="148" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C147" s="27"/>
+    </row>
+    <row r="148" spans="2:3" ht="15.75" customHeight="1">
       <c r="B148" s="24"/>
-    </row>
-    <row r="149" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C148" s="27"/>
+    </row>
+    <row r="149" spans="2:3" ht="15.75" customHeight="1">
       <c r="B149" s="24"/>
-    </row>
-    <row r="150" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C149" s="27"/>
+    </row>
+    <row r="150" spans="2:3" ht="15.75" customHeight="1">
       <c r="B150" s="24"/>
-    </row>
-    <row r="151" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C150" s="27"/>
+    </row>
+    <row r="151" spans="2:3" ht="15.75" customHeight="1">
       <c r="B151" s="24"/>
-    </row>
-    <row r="152" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C151" s="27"/>
+    </row>
+    <row r="152" spans="2:3" ht="15.75" customHeight="1">
       <c r="B152" s="24"/>
-    </row>
-    <row r="153" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C152" s="27"/>
+    </row>
+    <row r="153" spans="2:3" ht="15.75" customHeight="1">
       <c r="B153" s="24"/>
-    </row>
-    <row r="154" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C153" s="27"/>
+    </row>
+    <row r="154" spans="2:3" ht="15.75" customHeight="1">
       <c r="B154" s="24"/>
-    </row>
-    <row r="155" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C154" s="27"/>
+    </row>
+    <row r="155" spans="2:3" ht="15.75" customHeight="1">
       <c r="B155" s="24"/>
-    </row>
-    <row r="156" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C155" s="27"/>
+    </row>
+    <row r="156" spans="2:3" ht="15.75" customHeight="1">
       <c r="B156" s="24"/>
-    </row>
-    <row r="157" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C156" s="27"/>
+    </row>
+    <row r="157" spans="2:3" ht="15.75" customHeight="1">
       <c r="B157" s="24"/>
-    </row>
-    <row r="158" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C157" s="27"/>
+    </row>
+    <row r="158" spans="2:3" ht="15.75" customHeight="1">
       <c r="B158" s="24"/>
-    </row>
-    <row r="159" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C158" s="27"/>
+    </row>
+    <row r="159" spans="2:3" ht="15.75" customHeight="1">
       <c r="B159" s="24"/>
-    </row>
-    <row r="160" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C159" s="27"/>
+    </row>
+    <row r="160" spans="2:3" ht="15.75" customHeight="1">
       <c r="B160" s="24"/>
-    </row>
-    <row r="161" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C160" s="27"/>
+    </row>
+    <row r="161" spans="2:3" ht="15.75" customHeight="1">
       <c r="B161" s="24"/>
-    </row>
-    <row r="162" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C161" s="27"/>
+    </row>
+    <row r="162" spans="2:3" ht="15.75" customHeight="1">
       <c r="B162" s="24"/>
-    </row>
-    <row r="163" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C162" s="27"/>
+    </row>
+    <row r="163" spans="2:3" ht="15.75" customHeight="1">
       <c r="B163" s="24"/>
-    </row>
-    <row r="164" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C163" s="27"/>
+    </row>
+    <row r="164" spans="2:3" ht="15.75" customHeight="1">
       <c r="B164" s="24"/>
-    </row>
-    <row r="165" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C164" s="27"/>
+    </row>
+    <row r="165" spans="2:3" ht="15.75" customHeight="1">
       <c r="B165" s="24"/>
-    </row>
-    <row r="166" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C165" s="27"/>
+    </row>
+    <row r="166" spans="2:3" ht="15.75" customHeight="1">
       <c r="B166" s="24"/>
-    </row>
-    <row r="167" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C166" s="27"/>
+    </row>
+    <row r="167" spans="2:3" ht="15.75" customHeight="1">
       <c r="B167" s="24"/>
-    </row>
-    <row r="168" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C167" s="27"/>
+    </row>
+    <row r="168" spans="2:3" ht="15.75" customHeight="1">
       <c r="B168" s="24"/>
-    </row>
-    <row r="169" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C168" s="27"/>
+    </row>
+    <row r="169" spans="2:3" ht="15.75" customHeight="1">
       <c r="B169" s="24"/>
-    </row>
-    <row r="170" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C169" s="27"/>
+    </row>
+    <row r="170" spans="2:3" ht="15.75" customHeight="1">
       <c r="B170" s="24"/>
-    </row>
-    <row r="171" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C170" s="27"/>
+    </row>
+    <row r="171" spans="2:3" ht="15.75" customHeight="1">
       <c r="B171" s="24"/>
-    </row>
-    <row r="172" spans="2:2" ht="15.75" customHeight="1">
+      <c r="C171" s="27"/>
+    </row>
+    <row r="172" spans="2:3" ht="15.75" customHeight="1">
       <c r="B172" s="24"/>
+      <c r="C172" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C21" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C26" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E26" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C27" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E27" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C28" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E28" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E29" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C30" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E30" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C31" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E31" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C32" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E32" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C33" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E33" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E34" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C35" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E35" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C36" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E36" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C37" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E37" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C38" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E38" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C40" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E40" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C41" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E41" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C42" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E42" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C43" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E43" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C44" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E44" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C45" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E45" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C46" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E46" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C47" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E47" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C48" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E48" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C49" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E49" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C50" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E50" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C51" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E51" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C52" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E52" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C53" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E53" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C54" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E54" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C55" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E55" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D21" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D26" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F26" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D27" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F27" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D28" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F28" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F29" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D30" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F30" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D31" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F31" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D32" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F32" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D33" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F33" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F34" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D35" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F35" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D36" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F36" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D37" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F37" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D38" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F38" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D40" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F40" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D41" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F41" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D42" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F42" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D43" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F43" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D44" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F44" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D45" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F45" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D46" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F46" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D47" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="F47" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D48" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F48" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D49" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F49" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D50" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F50" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D51" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="F51" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D52" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="F52" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D53" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="F53" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D54" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="F54" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D55" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="F55" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/Coding Decoded Dynamic Programming SDE sheet.xlsx
+++ b/src/main/resources/Coding Decoded Dynamic Programming SDE sheet.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRAMAM11\My-Garrage\personal-workshop\dsa-practise\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workshop\my-learnings\ram-dsa-mad\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576E3D11-2751-4E69-95D8-4D7F1ADE56B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="645" windowWidth="20460" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="648" windowWidth="20460" windowHeight="10872"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="161">
   <si>
     <t xml:space="preserve">Question marked with** are must do before interview </t>
   </si>
@@ -615,7 +614,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="10"/>
@@ -780,7 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -833,6 +832,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1048,21 +1048,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="70.7109375" customWidth="1"/>
+    <col min="1" max="2" width="70.6640625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="54.140625" customWidth="1"/>
+    <col min="4" max="4" width="54.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
@@ -1082,7 +1082,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="12.75">
+    <row r="2" spans="1:9" ht="13.8">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
@@ -1095,7 +1095,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75">
+    <row r="3" spans="1:9" ht="13.8">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="12.75">
+    <row r="4" spans="1:9" ht="13.8">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="12.75">
+    <row r="5" spans="1:9" ht="13.8">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="12.75">
+    <row r="6" spans="1:9" ht="13.8">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1177,7 +1177,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75">
+    <row r="7" spans="1:9" ht="13.8">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1196,26 +1196,30 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="12.75">
+    <row r="8" spans="1:9" ht="13.8">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="12.75">
+    <row r="9" spans="1:9" ht="13.8">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1234,7 +1238,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="12.75">
+    <row r="10" spans="1:9" ht="13.8">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1253,7 +1257,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="12.75">
+    <row r="11" spans="1:9" ht="13.8">
       <c r="A11" s="10"/>
       <c r="B11" s="24"/>
       <c r="C11" s="27"/>
@@ -1261,7 +1265,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:9" ht="12.75">
+    <row r="12" spans="1:9" ht="13.8">
       <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
@@ -1273,14 +1277,14 @@
       <c r="E12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="28" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="12.75">
+    <row r="13" spans="1:9" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -1299,7 +1303,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="12.75">
+    <row r="14" spans="1:9" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>33</v>
       </c>
@@ -1318,7 +1322,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="12.75">
+    <row r="15" spans="1:9" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
@@ -1337,7 +1341,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="12.75">
+    <row r="16" spans="1:9" ht="13.8">
       <c r="A16" s="13" t="s">
         <v>39</v>
       </c>
@@ -1356,7 +1360,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="12.75">
+    <row r="17" spans="1:9" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
@@ -1375,7 +1379,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="12.75">
+    <row r="18" spans="1:9" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>45</v>
       </c>
@@ -1394,7 +1398,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="12.75">
+    <row r="19" spans="1:9" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>48</v>
       </c>
@@ -1413,7 +1417,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="12.75">
+    <row r="20" spans="1:9" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>51</v>
       </c>
@@ -1432,7 +1436,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="12.75">
+    <row r="21" spans="1:9" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>54</v>
       </c>
@@ -1451,7 +1455,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="12.75">
+    <row r="22" spans="1:9" ht="13.8">
       <c r="A22" s="13" t="s">
         <v>57</v>
       </c>
@@ -1470,7 +1474,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="12.75">
+    <row r="23" spans="1:9" ht="13.8">
       <c r="A23" s="13" t="s">
         <v>60</v>
       </c>
@@ -1489,7 +1493,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="12.75">
+    <row r="24" spans="1:9" ht="13.8">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
@@ -1508,7 +1512,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="12.75">
+    <row r="25" spans="1:9" ht="13.8">
       <c r="A25" s="13" t="s">
         <v>66</v>
       </c>
@@ -1527,7 +1531,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="12.75">
+    <row r="26" spans="1:9" ht="13.8">
       <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
@@ -1546,7 +1550,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="12.75">
+    <row r="27" spans="1:9" ht="13.8">
       <c r="A27" s="13" t="s">
         <v>72</v>
       </c>
@@ -1565,7 +1569,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="12.75">
+    <row r="28" spans="1:9" ht="13.8">
       <c r="A28" s="13" t="s">
         <v>75</v>
       </c>
@@ -1584,7 +1588,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="12.75">
+    <row r="29" spans="1:9" ht="13.8">
       <c r="A29" s="13" t="s">
         <v>78</v>
       </c>
@@ -1603,7 +1607,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="12.75">
+    <row r="30" spans="1:9" ht="13.8">
       <c r="A30" s="13" t="s">
         <v>81</v>
       </c>
@@ -1622,7 +1626,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="12.75">
+    <row r="31" spans="1:9" ht="13.8">
       <c r="A31" s="13" t="s">
         <v>84</v>
       </c>
@@ -1641,7 +1645,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="12.75">
+    <row r="32" spans="1:9" ht="13.8">
       <c r="A32" s="13" t="s">
         <v>87</v>
       </c>
@@ -1660,7 +1664,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="12.75">
+    <row r="33" spans="1:9" ht="13.8">
       <c r="A33" s="13" t="s">
         <v>90</v>
       </c>
@@ -1679,7 +1683,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="12.75">
+    <row r="34" spans="1:9" ht="13.8">
       <c r="A34" s="13" t="s">
         <v>93</v>
       </c>
@@ -1698,7 +1702,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="12.75">
+    <row r="35" spans="1:9" ht="13.8">
       <c r="A35" s="13" t="s">
         <v>96</v>
       </c>
@@ -1717,7 +1721,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="12.75">
+    <row r="36" spans="1:9" ht="13.8">
       <c r="A36" s="13" t="s">
         <v>99</v>
       </c>
@@ -1736,7 +1740,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="12.75">
+    <row r="37" spans="1:9" ht="13.8">
       <c r="A37" s="13" t="s">
         <v>102</v>
       </c>
@@ -1755,7 +1759,7 @@
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75">
+    <row r="38" spans="1:9" ht="13.8">
       <c r="A38" s="13" t="s">
         <v>105</v>
       </c>
@@ -1778,7 +1782,7 @@
       <c r="B39" s="24"/>
       <c r="C39" s="27"/>
     </row>
-    <row r="40" spans="1:9" ht="12.75">
+    <row r="40" spans="1:9" ht="13.8">
       <c r="A40" s="18" t="s">
         <v>108</v>
       </c>
@@ -1797,7 +1801,7 @@
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" ht="12.75">
+    <row r="41" spans="1:9" ht="13.8">
       <c r="A41" s="18" t="s">
         <v>112</v>
       </c>
@@ -1816,7 +1820,7 @@
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" ht="12.75">
+    <row r="42" spans="1:9" ht="13.8">
       <c r="A42" s="18" t="s">
         <v>115</v>
       </c>
@@ -1835,7 +1839,7 @@
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" ht="12.75">
+    <row r="43" spans="1:9" ht="13.8">
       <c r="A43" s="18" t="s">
         <v>118</v>
       </c>
@@ -1854,7 +1858,7 @@
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:9" ht="12.75">
+    <row r="44" spans="1:9" ht="13.8">
       <c r="A44" s="18" t="s">
         <v>121</v>
       </c>
@@ -1873,7 +1877,7 @@
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="1:9" ht="12.75">
+    <row r="45" spans="1:9" ht="13.8">
       <c r="A45" s="18" t="s">
         <v>124</v>
       </c>
@@ -1892,7 +1896,7 @@
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
     </row>
-    <row r="46" spans="1:9" ht="12.75">
+    <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="18" t="s">
         <v>127</v>
       </c>
@@ -1911,7 +1915,7 @@
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
     </row>
-    <row r="47" spans="1:9" ht="12.75">
+    <row r="47" spans="1:9" ht="13.8">
       <c r="A47" s="18" t="s">
         <v>130</v>
       </c>
@@ -1930,7 +1934,7 @@
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
     </row>
-    <row r="48" spans="1:9" ht="12.75">
+    <row r="48" spans="1:9" ht="13.8">
       <c r="A48" s="18" t="s">
         <v>133</v>
       </c>
@@ -1949,7 +1953,7 @@
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
     </row>
-    <row r="49" spans="1:9" ht="12.75">
+    <row r="49" spans="1:9" ht="13.8">
       <c r="A49" s="18" t="s">
         <v>136</v>
       </c>
@@ -1968,7 +1972,7 @@
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
     </row>
-    <row r="50" spans="1:9" ht="12.75">
+    <row r="50" spans="1:9" ht="13.8">
       <c r="A50" s="18" t="s">
         <v>139</v>
       </c>
@@ -1987,7 +1991,7 @@
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
     </row>
-    <row r="51" spans="1:9" ht="12.75">
+    <row r="51" spans="1:9" ht="13.8">
       <c r="A51" s="18" t="s">
         <v>142</v>
       </c>
@@ -2006,7 +2010,7 @@
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
     </row>
-    <row r="52" spans="1:9" ht="12.75">
+    <row r="52" spans="1:9" ht="13.8">
       <c r="A52" s="18" t="s">
         <v>145</v>
       </c>
@@ -2025,7 +2029,7 @@
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
     </row>
-    <row r="53" spans="1:9" ht="12.75">
+    <row r="53" spans="1:9" ht="13.8">
       <c r="A53" s="18" t="s">
         <v>148</v>
       </c>
@@ -2044,7 +2048,7 @@
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
     </row>
-    <row r="54" spans="1:9" ht="12.75">
+    <row r="54" spans="1:9" ht="13.8">
       <c r="A54" s="18" t="s">
         <v>151</v>
       </c>
@@ -2063,7 +2067,7 @@
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
     </row>
-    <row r="55" spans="1:9" ht="12.75">
+    <row r="55" spans="1:9" ht="13.8">
       <c r="A55" s="18" t="s">
         <v>154</v>
       </c>
@@ -2552,108 +2556,108 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D21" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D26" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F26" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D27" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F27" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D28" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F28" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F29" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D30" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F30" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D31" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F31" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D32" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F32" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D33" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F33" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F34" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D35" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="F35" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D36" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F36" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D37" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F37" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D38" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="F38" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D40" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F40" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D41" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="F41" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D42" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="F42" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D43" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="F43" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D44" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="F44" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D45" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="F45" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D46" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="F46" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D47" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="F47" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D48" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="F48" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D49" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="F49" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D50" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="F50" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D51" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="F51" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D52" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="F52" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D53" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="F53" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D54" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="F54" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D55" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="F55" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="F5" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId7"/>
+    <hyperlink ref="F6" r:id="rId8"/>
+    <hyperlink ref="D7" r:id="rId9"/>
+    <hyperlink ref="F7" r:id="rId10"/>
+    <hyperlink ref="D8" r:id="rId11"/>
+    <hyperlink ref="F8" r:id="rId12"/>
+    <hyperlink ref="D9" r:id="rId13"/>
+    <hyperlink ref="F9" r:id="rId14"/>
+    <hyperlink ref="D10" r:id="rId15"/>
+    <hyperlink ref="F10" r:id="rId16"/>
+    <hyperlink ref="D12" r:id="rId17"/>
+    <hyperlink ref="F12" r:id="rId18"/>
+    <hyperlink ref="D13" r:id="rId19"/>
+    <hyperlink ref="F13" r:id="rId20"/>
+    <hyperlink ref="D14" r:id="rId21"/>
+    <hyperlink ref="F14" r:id="rId22"/>
+    <hyperlink ref="D15" r:id="rId23"/>
+    <hyperlink ref="F15" r:id="rId24"/>
+    <hyperlink ref="D16" r:id="rId25"/>
+    <hyperlink ref="F16" r:id="rId26"/>
+    <hyperlink ref="D17" r:id="rId27"/>
+    <hyperlink ref="F17" r:id="rId28"/>
+    <hyperlink ref="D18" r:id="rId29"/>
+    <hyperlink ref="F18" r:id="rId30"/>
+    <hyperlink ref="D19" r:id="rId31"/>
+    <hyperlink ref="F19" r:id="rId32"/>
+    <hyperlink ref="D20" r:id="rId33"/>
+    <hyperlink ref="F20" r:id="rId34"/>
+    <hyperlink ref="D21" r:id="rId35"/>
+    <hyperlink ref="F21" r:id="rId36"/>
+    <hyperlink ref="D22" r:id="rId37"/>
+    <hyperlink ref="F22" r:id="rId38"/>
+    <hyperlink ref="D23" r:id="rId39"/>
+    <hyperlink ref="F23" r:id="rId40"/>
+    <hyperlink ref="D24" r:id="rId41"/>
+    <hyperlink ref="F24" r:id="rId42"/>
+    <hyperlink ref="D25" r:id="rId43"/>
+    <hyperlink ref="F25" r:id="rId44"/>
+    <hyperlink ref="D26" r:id="rId45"/>
+    <hyperlink ref="F26" r:id="rId46"/>
+    <hyperlink ref="D27" r:id="rId47"/>
+    <hyperlink ref="F27" r:id="rId48"/>
+    <hyperlink ref="D28" r:id="rId49"/>
+    <hyperlink ref="F28" r:id="rId50"/>
+    <hyperlink ref="D29" r:id="rId51"/>
+    <hyperlink ref="F29" r:id="rId52"/>
+    <hyperlink ref="D30" r:id="rId53"/>
+    <hyperlink ref="F30" r:id="rId54"/>
+    <hyperlink ref="D31" r:id="rId55"/>
+    <hyperlink ref="F31" r:id="rId56"/>
+    <hyperlink ref="D32" r:id="rId57"/>
+    <hyperlink ref="F32" r:id="rId58"/>
+    <hyperlink ref="D33" r:id="rId59"/>
+    <hyperlink ref="F33" r:id="rId60"/>
+    <hyperlink ref="D34" r:id="rId61"/>
+    <hyperlink ref="F34" r:id="rId62"/>
+    <hyperlink ref="D35" r:id="rId63"/>
+    <hyperlink ref="F35" r:id="rId64"/>
+    <hyperlink ref="D36" r:id="rId65"/>
+    <hyperlink ref="F36" r:id="rId66"/>
+    <hyperlink ref="D37" r:id="rId67"/>
+    <hyperlink ref="F37" r:id="rId68"/>
+    <hyperlink ref="D38" r:id="rId69"/>
+    <hyperlink ref="F38" r:id="rId70"/>
+    <hyperlink ref="D40" r:id="rId71"/>
+    <hyperlink ref="F40" r:id="rId72"/>
+    <hyperlink ref="D41" r:id="rId73"/>
+    <hyperlink ref="F41" r:id="rId74"/>
+    <hyperlink ref="D42" r:id="rId75"/>
+    <hyperlink ref="F42" r:id="rId76"/>
+    <hyperlink ref="D43" r:id="rId77"/>
+    <hyperlink ref="F43" r:id="rId78"/>
+    <hyperlink ref="D44" r:id="rId79"/>
+    <hyperlink ref="F44" r:id="rId80"/>
+    <hyperlink ref="D45" r:id="rId81"/>
+    <hyperlink ref="F45" r:id="rId82"/>
+    <hyperlink ref="D46" r:id="rId83"/>
+    <hyperlink ref="F46" r:id="rId84"/>
+    <hyperlink ref="D47" r:id="rId85"/>
+    <hyperlink ref="F47" r:id="rId86"/>
+    <hyperlink ref="D48" r:id="rId87"/>
+    <hyperlink ref="F48" r:id="rId88"/>
+    <hyperlink ref="D49" r:id="rId89"/>
+    <hyperlink ref="F49" r:id="rId90"/>
+    <hyperlink ref="D50" r:id="rId91"/>
+    <hyperlink ref="F50" r:id="rId92"/>
+    <hyperlink ref="D51" r:id="rId93"/>
+    <hyperlink ref="F51" r:id="rId94"/>
+    <hyperlink ref="D52" r:id="rId95"/>
+    <hyperlink ref="F52" r:id="rId96"/>
+    <hyperlink ref="D53" r:id="rId97"/>
+    <hyperlink ref="F53" r:id="rId98"/>
+    <hyperlink ref="D54" r:id="rId99"/>
+    <hyperlink ref="F54" r:id="rId100"/>
+    <hyperlink ref="D55" r:id="rId101"/>
+    <hyperlink ref="F55" r:id="rId102"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
